--- a/data/trans_orig/P44C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9207</v>
+        <v>9316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.120496439740228</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.456291225590964</v>
+        <v>0.4617287489430872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7032</v>
+        <v>6985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1818844278487195</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5257675601198315</v>
+        <v>0.522285124894566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>4864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1172</v>
+        <v>1197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11584</v>
+        <v>12387</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1449666046343781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0349221574796889</v>
+        <v>0.03567136731016152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3452525120691505</v>
+        <v>0.3691915991810667</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>3110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8000</v>
+        <v>8243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.154137332290414</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04548612203058494</v>
+        <v>0.04511459405526388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3965039228874485</v>
+        <v>0.4085393624589225</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>2988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6843</v>
+        <v>7300</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2233901763918305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0655578017397469</v>
+        <v>0.06687674030968271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5116601019959884</v>
+        <v>0.5458524141973926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -856,19 +856,19 @@
         <v>6098</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2173</v>
+        <v>2775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11859</v>
+        <v>12291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1817425457330765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06477805968340034</v>
+        <v>0.08269852401981105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3534402730932109</v>
+        <v>0.3663268884978442</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>10407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4996</v>
+        <v>4879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15643</v>
+        <v>15448</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5157985031939845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.247592792514347</v>
+        <v>0.2418022560192336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.775295974710776</v>
+        <v>0.7655999606018747</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -906,19 +906,19 @@
         <v>3637</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8286</v>
+        <v>8028</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2719662283249215</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07466860567944461</v>
+        <v>0.07458999578004413</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6195516390974535</v>
+        <v>0.6002610546163742</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -927,19 +927,19 @@
         <v>14045</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7937</v>
+        <v>7877</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21780</v>
+        <v>20468</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4186033326662118</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2365668085673316</v>
+        <v>0.2347616275234014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.649147178755997</v>
+        <v>0.6100358487334827</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>4228</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1033</v>
+        <v>996</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8677</v>
+        <v>8993</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2095677247753736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05120678818159855</v>
+        <v>0.04937115519921052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4300277900263915</v>
+        <v>0.445719840432822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -977,19 +977,19 @@
         <v>4317</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1068</v>
+        <v>1109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8860</v>
+        <v>8704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3227591674345284</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07983611387773112</v>
+        <v>0.08290114736221887</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6624997501449748</v>
+        <v>0.6507899918186498</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -998,19 +998,19 @@
         <v>8545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4100</v>
+        <v>3867</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15080</v>
+        <v>14741</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2546875169663336</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1221870132848342</v>
+        <v>0.1152527493460439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4494651899389813</v>
+        <v>0.4393448924003585</v>
       </c>
     </row>
     <row r="8">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7846</v>
+        <v>7909</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1961617146199421</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5157634983274844</v>
+        <v>0.5198526694613125</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9143</v>
+        <v>10160</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1268764134156836</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3887314533857895</v>
+        <v>0.4319605421353691</v>
       </c>
     </row>
     <row r="10">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6601</v>
+        <v>5893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1369875903520733</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4338873999768268</v>
+        <v>0.3873335632022532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5988</v>
+        <v>5930</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2633880121215944</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.720731996498356</v>
+        <v>0.7137909275552422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1207,19 +1207,19 @@
         <v>4272</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9394</v>
+        <v>9178</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1816328531222034</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04811041165556828</v>
+        <v>0.04789748070941931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3993875949529182</v>
+        <v>0.39020367128112</v>
       </c>
     </row>
     <row r="11">
@@ -1236,19 +1236,19 @@
         <v>8022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4087</v>
+        <v>3620</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11858</v>
+        <v>11960</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.527324029223347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2686551971670411</v>
+        <v>0.2379864580468472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7794705975192958</v>
+        <v>0.786150753652891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4704</v>
+        <v>4698</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1272228450106332</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.566237015384743</v>
+        <v>0.5655363051760013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1278,19 +1278,19 @@
         <v>9079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4292</v>
+        <v>4426</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14896</v>
+        <v>14356</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3860062847589528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1824728076504004</v>
+        <v>0.1881828087760227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6333241885434054</v>
+        <v>0.6103460024093437</v>
       </c>
     </row>
     <row r="12">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6553</v>
+        <v>5805</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1395266658046376</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4307581899829422</v>
+        <v>0.3815665878763887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1328,19 +1328,19 @@
         <v>5063</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1231</v>
+        <v>1564</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7369</v>
+        <v>7475</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6093891428677725</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1481177118376311</v>
+        <v>0.1882557841210589</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8870235717921143</v>
+        <v>0.8997269969247012</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1349,19 +1349,19 @@
         <v>7185</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3420</v>
+        <v>3026</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13374</v>
+        <v>12161</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3054844487031603</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.145422769420571</v>
+        <v>0.1286581068597839</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5685817279579053</v>
+        <v>0.5170422462015504</v>
       </c>
     </row>
     <row r="13">
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4699</v>
+        <v>4410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08769585359979368</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4310386045120794</v>
+        <v>0.4045147683652058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5157</v>
+        <v>5413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02378936848883284</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1283075884774237</v>
+        <v>0.1346912053198194</v>
       </c>
     </row>
     <row r="15">
@@ -1516,19 +1516,19 @@
         <v>13605</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7491</v>
+        <v>7391</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19735</v>
+        <v>19857</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4645154083462122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2557697268447103</v>
+        <v>0.2523580108951078</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6738236230573917</v>
+        <v>0.6779941086647232</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1550,19 +1550,19 @@
         <v>13605</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7171</v>
+        <v>7497</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21416</v>
+        <v>21933</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3385057081804715</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1784176653357333</v>
+        <v>0.1865285324641889</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5328750864937322</v>
+        <v>0.5457395913369508</v>
       </c>
     </row>
     <row r="16">
@@ -1579,19 +1579,19 @@
         <v>13567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7988</v>
+        <v>7877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19625</v>
+        <v>20137</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4632146991068355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.272727858674518</v>
+        <v>0.2689509613276333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6700547945764761</v>
+        <v>0.6875388374904411</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1600,19 +1600,19 @@
         <v>6102</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2191</v>
+        <v>2241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9811</v>
+        <v>9935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5596840528483438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2009774491424239</v>
+        <v>0.2055654100157486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8998965425625669</v>
+        <v>0.9113017297480706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1621,19 +1621,19 @@
         <v>19668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12572</v>
+        <v>12957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27284</v>
+        <v>26895</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4893840664124946</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3128116959843271</v>
+        <v>0.3224050140889858</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6788642649145705</v>
+        <v>0.6692008515173223</v>
       </c>
     </row>
     <row r="17">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6346</v>
+        <v>7309</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07226989254695224</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2166684934792493</v>
+        <v>0.2495680692384198</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1671,19 +1671,19 @@
         <v>3844</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>990</v>
+        <v>946</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8178</v>
+        <v>7810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3526200935518625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0908064068071248</v>
+        <v>0.08677281340721038</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7501171150395483</v>
+        <v>0.7163641015351699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1692,19 +1692,19 @@
         <v>5961</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1970</v>
+        <v>2039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12337</v>
+        <v>12414</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1483208569182011</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04900910812821118</v>
+        <v>0.05073230416245109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3069614000273604</v>
+        <v>0.3088892835292447</v>
       </c>
     </row>
     <row r="18">
@@ -1843,19 +1843,19 @@
         <v>8287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3826</v>
+        <v>3579</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14111</v>
+        <v>14081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2219280709534425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.10245390785664</v>
+        <v>0.0958428646301395</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3779104818076282</v>
+        <v>0.3771021855392093</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1864,19 +1864,19 @@
         <v>4071</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1053</v>
+        <v>1017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8244</v>
+        <v>8187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2631218136513631</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06808744989763614</v>
+        <v>0.06573396772905213</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5328485640768056</v>
+        <v>0.5291391246207615</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1885,19 +1885,19 @@
         <v>12358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6860</v>
+        <v>7143</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19466</v>
+        <v>19200</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.233996153976088</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1299037289028056</v>
+        <v>0.1352607588944433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3685945432144169</v>
+        <v>0.3635605832565179</v>
       </c>
     </row>
     <row r="21">
@@ -1914,19 +1914,19 @@
         <v>23282</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16585</v>
+        <v>16758</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29223</v>
+        <v>29804</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6235113551972251</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4441696387680277</v>
+        <v>0.4487886533758386</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7826173768987097</v>
+        <v>0.7981726833863635</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1935,19 +1935,19 @@
         <v>11401</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7228</v>
+        <v>7285</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14419</v>
+        <v>14455</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7368781863486369</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4671514359231943</v>
+        <v>0.4708608753792385</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9319125501023638</v>
+        <v>0.934266032270948</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -1956,19 +1956,19 @@
         <v>34682</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25940</v>
+        <v>27147</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>40959</v>
+        <v>41281</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6567232034233523</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4911939744492288</v>
+        <v>0.5140421552273066</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7755836844598172</v>
+        <v>0.7816734273634446</v>
       </c>
     </row>
     <row r="22">
@@ -1985,19 +1985,19 @@
         <v>5771</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2260</v>
+        <v>2103</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12101</v>
+        <v>11468</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1545605738493324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06051535716266407</v>
+        <v>0.05631811730232103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3240850898274354</v>
+        <v>0.3071230413493681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2019,19 +2019,19 @@
         <v>5771</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2201</v>
+        <v>2154</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12138</v>
+        <v>12926</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1092806426005597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04166770168739384</v>
+        <v>0.04077791656951999</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2298436942401533</v>
+        <v>0.2447507024161598</v>
       </c>
     </row>
     <row r="23">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8611</v>
+        <v>7161</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07101731421135897</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3197519906062377</v>
+        <v>0.2658945876413112</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8782</v>
+        <v>7287</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05239895334657541</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2406184990032986</v>
+        <v>0.1996411622790573</v>
       </c>
     </row>
     <row r="25">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4897</v>
+        <v>4290</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1104494316028441</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5117221326033978</v>
+        <v>0.4483440278200642</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2207,19 +2207,19 @@
         <v>9135</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3745</v>
+        <v>4424</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14972</v>
+        <v>15082</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3391977073354405</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1390506358433287</v>
+        <v>0.1642665458337016</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5559624817372603</v>
+        <v>0.5600622267922232</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2228,19 +2228,19 @@
         <v>10191</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5447</v>
+        <v>4760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16749</v>
+        <v>16441</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2792275719947647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1492312663387667</v>
+        <v>0.1304251096511021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4589063856342465</v>
+        <v>0.4504648617655395</v>
       </c>
     </row>
     <row r="26">
@@ -2257,7 +2257,7 @@
         <v>7378</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4091</v>
+        <v>4127</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>9569</v>
@@ -2266,7 +2266,7 @@
         <v>0.7710061216240759</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4275620956516398</v>
+        <v>0.4313073932988252</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2278,19 +2278,19 @@
         <v>10502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5374</v>
+        <v>5361</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15506</v>
+        <v>15956</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3899599800390998</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1995669399987914</v>
+        <v>0.1990542277223915</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5757963301743089</v>
+        <v>0.5925031455759858</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -2299,19 +2299,19 @@
         <v>17879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11427</v>
+        <v>11447</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24035</v>
+        <v>24162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4898575141678652</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3130957613196129</v>
+        <v>0.3136407769536629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6585357967670334</v>
+        <v>0.6620060067680832</v>
       </c>
     </row>
     <row r="27">
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4509</v>
+        <v>4527</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.11854444677308</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4711570848050872</v>
+        <v>0.4730532202987953</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -2349,19 +2349,19 @@
         <v>5381</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2018</v>
+        <v>2077</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10952</v>
+        <v>10938</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1998249984141008</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07495324443015665</v>
+        <v>0.07712273047890372</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4066856163017505</v>
+        <v>0.4061819838857414</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -2370,19 +2370,19 @@
         <v>6515</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3058</v>
+        <v>2939</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>12155</v>
+        <v>13273</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1785159604907946</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08377329006753927</v>
+        <v>0.0805171460636379</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3330370197689497</v>
+        <v>0.3636542660553245</v>
       </c>
     </row>
     <row r="28">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4461</v>
+        <v>5343</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03064616764724028</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1308897962749343</v>
+        <v>0.1567543540875051</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4461</v>
+        <v>5343</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03064616764724028</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1308897962749343</v>
+        <v>0.1567543540875051</v>
       </c>
     </row>
     <row r="30">
@@ -2542,19 +2542,19 @@
         <v>18296</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12664</v>
+        <v>12837</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24493</v>
+        <v>24454</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5368014555431727</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3715555035031331</v>
+        <v>0.3766314683996687</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7186415934812277</v>
+        <v>0.7174771214109843</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>17</v>
@@ -2563,19 +2563,19 @@
         <v>18296</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12664</v>
+        <v>12837</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24493</v>
+        <v>24454</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5368014555431727</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3715555035031331</v>
+        <v>0.3766314683996687</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7186415934812277</v>
+        <v>0.7174771214109843</v>
       </c>
     </row>
     <row r="31">
@@ -2601,19 +2601,19 @@
         <v>12847</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7448</v>
+        <v>7440</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18605</v>
+        <v>19353</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3769237874116771</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2185197104320868</v>
+        <v>0.2182843809719517</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5458685865084777</v>
+        <v>0.5678303317015551</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -2622,19 +2622,19 @@
         <v>12847</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7448</v>
+        <v>7440</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18605</v>
+        <v>19353</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3769237874116771</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2185197104320868</v>
+        <v>0.2182843809719517</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5458685865084777</v>
+        <v>0.5678303317015551</v>
       </c>
     </row>
     <row r="32">
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6417</v>
+        <v>5921</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05562858939790986</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1882646508629958</v>
+        <v>0.1737302568860771</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6417</v>
+        <v>5921</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05562858939790986</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1882646508629958</v>
+        <v>0.1737302568860771</v>
       </c>
     </row>
     <row r="33">
@@ -2773,19 +2773,19 @@
         <v>5416</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15170</v>
+        <v>15407</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04853262916438378</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00869712258184952</v>
+        <v>0.00908429080356527</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1359440396314955</v>
+        <v>0.1380726294888392</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2794,19 +2794,19 @@
         <v>6346</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2308</v>
+        <v>2182</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15099</v>
+        <v>14230</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05818025457734851</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02115930622913998</v>
+        <v>0.02000574009819484</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1384318333964552</v>
+        <v>0.1304635720208913</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -2815,19 +2815,19 @@
         <v>11761</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5293</v>
+        <v>5141</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>23595</v>
+        <v>22169</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05330138704044091</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02398658442975193</v>
+        <v>0.0233000638567103</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1069297755246297</v>
+        <v>0.100467700895459</v>
       </c>
     </row>
     <row r="35">
@@ -2844,19 +2844,19 @@
         <v>28142</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18355</v>
+        <v>18535</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39034</v>
+        <v>38261</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2522005500286593</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1644890067857555</v>
+        <v>0.166106817562154</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3498054162201948</v>
+        <v>0.3428772187556204</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -2865,19 +2865,19 @@
         <v>36677</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26894</v>
+        <v>27257</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>47938</v>
+        <v>48314</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3362745566844625</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2465761045678597</v>
+        <v>0.249901740472755</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4395235977914304</v>
+        <v>0.4429632800351186</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>58</v>
@@ -2886,19 +2886,19 @@
         <v>64819</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>51066</v>
+        <v>51945</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79446</v>
+        <v>81892</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2937577793208292</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2314306645126791</v>
+        <v>0.2354112828555624</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3600456268002573</v>
+        <v>0.3711322444319332</v>
       </c>
     </row>
     <row r="36">
@@ -2915,19 +2915,19 @@
         <v>62656</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>50448</v>
+        <v>50553</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>72635</v>
+        <v>72904</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5614961472657999</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4520933499573943</v>
+        <v>0.4530339891005794</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6509236766751187</v>
+        <v>0.6533392638087999</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>42</v>
@@ -2936,19 +2936,19 @@
         <v>45545</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>35002</v>
+        <v>35070</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>56588</v>
+        <v>56264</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4175812268252993</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3209130479899049</v>
+        <v>0.3215434475983447</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5188317328535852</v>
+        <v>0.5158553747744884</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>97</v>
@@ -2957,19 +2957,19 @@
         <v>108200</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>91869</v>
+        <v>92640</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>124216</v>
+        <v>123629</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.490359947324775</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4163471554885863</v>
+        <v>0.4198413683570467</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5629440868522863</v>
+        <v>0.5602841120243724</v>
       </c>
     </row>
     <row r="37">
@@ -2986,19 +2986,19 @@
         <v>15373</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9034</v>
+        <v>8814</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23613</v>
+        <v>23308</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.137770673541157</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08096226702208542</v>
+        <v>0.07898652986284863</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2116121011473911</v>
+        <v>0.2088810888463118</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -3007,19 +3007,19 @@
         <v>20501</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12192</v>
+        <v>12858</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30670</v>
+        <v>31399</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1879639619128897</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1117833671384571</v>
+        <v>0.1178872302178968</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.281194757346465</v>
+        <v>0.2878823715325159</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>32</v>
@@ -3028,19 +3028,19 @@
         <v>35874</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24876</v>
+        <v>24790</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47572</v>
+        <v>49313</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1625808863139549</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1127375438544051</v>
+        <v>0.1123465967296655</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2155932571301098</v>
+        <v>0.2234843927998356</v>
       </c>
     </row>
     <row r="38">
@@ -3374,19 +3374,19 @@
         <v>4517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1705</v>
+        <v>990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10398</v>
+        <v>10280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1507064613901065</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05689683375424142</v>
+        <v>0.033015963074683</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3468999093962816</v>
+        <v>0.3429697502933701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6330</v>
+        <v>5912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2013169236889315</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5708007551476076</v>
+        <v>0.5331310446038632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -3416,19 +3416,19 @@
         <v>6750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2945</v>
+        <v>2865</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13355</v>
+        <v>13364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1643735613852195</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07171072021239901</v>
+        <v>0.06976245041426836</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3252481581050163</v>
+        <v>0.325451370014841</v>
       </c>
     </row>
     <row r="5">
@@ -3445,19 +3445,19 @@
         <v>3486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9092</v>
+        <v>8614</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1163039752616259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02983946114379151</v>
+        <v>0.03014971924802685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3033404089181752</v>
+        <v>0.2873741793280214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7242</v>
+        <v>7868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2539715018441161</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6530405798245279</v>
+        <v>0.7095040876154426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3487,19 +3487,19 @@
         <v>6302</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2613</v>
+        <v>2425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14383</v>
+        <v>13513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1534803962311387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0636391448290862</v>
+        <v>0.059047680646133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3502652965284959</v>
+        <v>0.3290971011811104</v>
       </c>
     </row>
     <row r="6">
@@ -3516,19 +3516,19 @@
         <v>13524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7776</v>
+        <v>7559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19791</v>
+        <v>19527</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4511868121084721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2594198012617341</v>
+        <v>0.2521984946382485</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6602654275406061</v>
+        <v>0.6514576167392123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6002</v>
+        <v>5985</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1865363192507342</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5412943079744509</v>
+        <v>0.5396913877712549</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3558,19 +3558,19 @@
         <v>15592</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8797</v>
+        <v>9608</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22766</v>
+        <v>22833</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3797192817728201</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2142485869740311</v>
+        <v>0.233982257256817</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5544275956403264</v>
+        <v>0.5560646949704998</v>
       </c>
     </row>
     <row r="7">
@@ -3587,19 +3587,19 @@
         <v>8447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14827</v>
+        <v>14738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2818027512397955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1373935130285082</v>
+        <v>0.1374203620596968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4946471478871335</v>
+        <v>0.4916964686289975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -3608,19 +3608,19 @@
         <v>3972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7927</v>
+        <v>8106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3581752552162182</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09695686556900171</v>
+        <v>0.09581063746232624</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7148141894998884</v>
+        <v>0.7309735423571643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3629,19 +3629,19 @@
         <v>12418</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7219</v>
+        <v>6527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19686</v>
+        <v>18850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3024267606108217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1758110408396859</v>
+        <v>0.1589440786724401</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.479425443614826</v>
+        <v>0.4590572031158096</v>
       </c>
     </row>
     <row r="8">
@@ -3733,19 +3733,19 @@
         <v>4106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1055</v>
+        <v>1117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8981</v>
+        <v>9379</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1595893322030876</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04101932891060791</v>
+        <v>0.04342038204433731</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3490880666109152</v>
+        <v>0.3645586833372346</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3767,19 +3767,19 @@
         <v>4106</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1093</v>
+        <v>1062</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9977</v>
+        <v>9385</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1322593063179805</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03522600633164545</v>
+        <v>0.034210200393517</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3214031826686765</v>
+        <v>0.302323437913085</v>
       </c>
     </row>
     <row r="10">
@@ -3796,19 +3796,19 @@
         <v>2758</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>838</v>
+        <v>790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6937</v>
+        <v>7107</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1072022261379874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03257744432862113</v>
+        <v>0.03069511308559828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2696420901325654</v>
+        <v>0.2762709479143869</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4393</v>
+        <v>4369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2179826485763512</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.826458557468618</v>
+        <v>0.8218156930615728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3838,19 +3838,19 @@
         <v>3917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>957</v>
+        <v>1011</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8674</v>
+        <v>8795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1261736183420147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03083410195538591</v>
+        <v>0.03255637268415357</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2794235562551258</v>
+        <v>0.2833248868758551</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>15714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10491</v>
+        <v>10449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20983</v>
+        <v>20205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6108084702709381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4078136559931263</v>
+        <v>0.4061804833087355</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8156340565675814</v>
+        <v>0.7853850952849745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3888,7 +3888,7 @@
         <v>3130</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>5316</v>
@@ -3897,7 +3897,7 @@
         <v>0.5887419939435519</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>0.1777030310041196</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3909,19 +3909,19 @@
         <v>18843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12969</v>
+        <v>13102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23996</v>
+        <v>24203</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6070295374256455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4177974109117499</v>
+        <v>0.4220770938224953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7730323674370488</v>
+        <v>0.779698567812985</v>
       </c>
     </row>
     <row r="12">
@@ -3938,19 +3938,19 @@
         <v>3149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>939</v>
+        <v>970</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7663</v>
+        <v>7650</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1223999713879869</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03648592254970839</v>
+        <v>0.0376890959351938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2978517104853322</v>
+        <v>0.297372760543792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4193</v>
+        <v>4182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1932753574800969</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7886788635151525</v>
+        <v>0.7866740687602283</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -3980,19 +3980,19 @@
         <v>4176</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1045</v>
+        <v>996</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8647</v>
+        <v>8874</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1345375379143594</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03367958790149635</v>
+        <v>0.03209832212811201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2785711726822764</v>
+        <v>0.2858608188761133</v>
       </c>
     </row>
     <row r="13">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7464</v>
+        <v>6941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07320576450987376</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.248660064557832</v>
+        <v>0.2312420287230058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6813</v>
+        <v>7640</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05880103161675915</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.182302656273642</v>
+        <v>0.2044433917856109</v>
       </c>
     </row>
     <row r="15">
@@ -4147,19 +4147,19 @@
         <v>8861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14199</v>
+        <v>14327</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2951771545559394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1387801034055279</v>
+        <v>0.1387503908325426</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4730155622055957</v>
+        <v>0.4772691432036886</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4168,19 +4168,19 @@
         <v>4177</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1029</v>
+        <v>1084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6352</v>
+        <v>6351</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5679642990312458</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1399134904723642</v>
+        <v>0.1473795768020344</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8636877828874588</v>
+        <v>0.8635473171897042</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -4189,19 +4189,19 @@
         <v>13037</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7869</v>
+        <v>7849</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19853</v>
+        <v>19993</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3488536099437151</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2105534097534557</v>
+        <v>0.2100352899932661</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5312309887936058</v>
+        <v>0.534981150629536</v>
       </c>
     </row>
     <row r="16">
@@ -4218,19 +4218,19 @@
         <v>13454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7223</v>
+        <v>7740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19280</v>
+        <v>19499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4482009147959828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2406223611198988</v>
+        <v>0.2578561485387125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6422813971295467</v>
+        <v>0.6495708431055317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5372</v>
+        <v>5353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2972154934941451</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7305466849982114</v>
+        <v>0.7278800622881128</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -4260,19 +4260,19 @@
         <v>15639</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9730</v>
+        <v>9225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21821</v>
+        <v>21989</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4184914420629441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.260349934768825</v>
+        <v>0.2468530594971691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5838947334220287</v>
+        <v>0.5884083111042365</v>
       </c>
     </row>
     <row r="17">
@@ -4289,19 +4289,19 @@
         <v>5506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1887</v>
+        <v>1937</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11042</v>
+        <v>10980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.183416166138204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06286085153415299</v>
+        <v>0.06451579465647087</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3678334103614955</v>
+        <v>0.3657844884873965</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4115</v>
+        <v>4698</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1348202074746092</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5595755925463555</v>
+        <v>0.6388286285951414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -4331,19 +4331,19 @@
         <v>6497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2840</v>
+        <v>2547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13049</v>
+        <v>12618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1738539163765817</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07598844547915817</v>
+        <v>0.06816695054610974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.34917511428939</v>
+        <v>0.3376537251754509</v>
       </c>
     </row>
     <row r="18">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4800</v>
+        <v>5310</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01968509410083373</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09553406541837461</v>
+        <v>0.1056994528477564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5259</v>
+        <v>5641</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05074132511743577</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2163679350358064</v>
+        <v>0.2320998807474693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7270</v>
+        <v>7520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02981082419896019</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09752034305513121</v>
+        <v>0.1008784743671377</v>
       </c>
     </row>
     <row r="20">
@@ -4506,19 +4506,19 @@
         <v>9600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5197</v>
+        <v>4940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16356</v>
+        <v>16172</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1910746433419286</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1034439125246006</v>
+        <v>0.09832894545540828</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3255530839192232</v>
+        <v>0.3218861373963865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -4527,19 +4527,19 @@
         <v>11445</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6239</v>
+        <v>6468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16764</v>
+        <v>16940</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4708853780818016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2566762920969216</v>
+        <v>0.2661002013016148</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6897427439697673</v>
+        <v>0.6969831135420429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -4548,19 +4548,19 @@
         <v>21045</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13577</v>
+        <v>13513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30525</v>
+        <v>30026</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2823055456693808</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1821307374857386</v>
+        <v>0.1812768586499364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4094757773701974</v>
+        <v>0.402788780243396</v>
       </c>
     </row>
     <row r="21">
@@ -4577,19 +4577,19 @@
         <v>28920</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22470</v>
+        <v>22084</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36016</v>
+        <v>35787</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.575623018018825</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4472469079789741</v>
+        <v>0.4395673924112782</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7168680526574154</v>
+        <v>0.7123080798139153</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -4598,19 +4598,19 @@
         <v>8447</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3845</v>
+        <v>3861</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13747</v>
+        <v>14131</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3475345692851884</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1582105843301966</v>
+        <v>0.1588713351791347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5656195391673614</v>
+        <v>0.5813914901321138</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -4619,19 +4619,19 @@
         <v>37367</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27855</v>
+        <v>29216</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>45725</v>
+        <v>47123</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5012559105245991</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3736627775328387</v>
+        <v>0.3919157738355646</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6133772447247903</v>
+        <v>0.6321380409597184</v>
       </c>
     </row>
     <row r="22">
@@ -4648,19 +4648,19 @@
         <v>10732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5289</v>
+        <v>5850</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17847</v>
+        <v>17354</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2136172445384126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1052757278034394</v>
+        <v>0.1164401478277601</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.355229557647303</v>
+        <v>0.3454132313117997</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8875</v>
+        <v>9372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1308387275155743</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3651680394219213</v>
+        <v>0.3855791842238021</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4690,19 +4690,19 @@
         <v>13912</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7750</v>
+        <v>7553</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22368</v>
+        <v>22257</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.18662771960706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1039590504718184</v>
+        <v>0.1013182727859347</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3000543209087526</v>
+        <v>0.2985716136460226</v>
       </c>
     </row>
     <row r="23">
@@ -4841,19 +4841,19 @@
         <v>5407</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1872</v>
+        <v>2452</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10069</v>
+        <v>9943</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2168555193555345</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07509263215427306</v>
+        <v>0.09834697286338888</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4038366097198635</v>
+        <v>0.3987773186940535</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4862,19 +4862,19 @@
         <v>5837</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2222</v>
+        <v>2186</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11783</v>
+        <v>11017</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2183401055081008</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08311185761069834</v>
+        <v>0.08178948072024826</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4407528115733035</v>
+        <v>0.4121297751478898</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -4883,19 +4883,19 @@
         <v>11244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6269</v>
+        <v>5788</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18272</v>
+        <v>18541</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2176236560901996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1213399160650354</v>
+        <v>0.1120197397315119</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3536588878762934</v>
+        <v>0.3588651374623636</v>
       </c>
     </row>
     <row r="26">
@@ -4912,19 +4912,19 @@
         <v>16486</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11773</v>
+        <v>11883</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21142</v>
+        <v>21043</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6611760768307888</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4721574676113278</v>
+        <v>0.476590375781658</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8478987938300544</v>
+        <v>0.8439410095064169</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -4933,19 +4933,19 @@
         <v>19793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13674</v>
+        <v>14692</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23507</v>
+        <v>24354</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7404057748550864</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5115067819945318</v>
+        <v>0.5495977740961768</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8793238850618746</v>
+        <v>0.9110196725260221</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -4954,19 +4954,19 @@
         <v>36279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29066</v>
+        <v>28708</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42038</v>
+        <v>42307</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7021701554995659</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5625645475296608</v>
+        <v>0.5556439311689165</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8136424830126566</v>
+        <v>0.8188333378282485</v>
       </c>
     </row>
     <row r="27">
@@ -4983,19 +4983,19 @@
         <v>3041</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7441</v>
+        <v>7300</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1219684038136767</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03781086581518821</v>
+        <v>0.03833609730591137</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2984347389452951</v>
+        <v>0.2927630676556796</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5826</v>
+        <v>5631</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0412541196368127</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.217943187454321</v>
+        <v>0.2106328505868107</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -5025,19 +5025,19 @@
         <v>4144</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1095</v>
+        <v>1045</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10224</v>
+        <v>9554</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08020618841023459</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02119729020051811</v>
+        <v>0.02021676233704869</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1978892245960148</v>
+        <v>0.1849119036135005</v>
       </c>
     </row>
     <row r="28">
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6856</v>
+        <v>6859</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05708201960692694</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1746040545120356</v>
+        <v>0.1746785716056527</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6856</v>
+        <v>6859</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05708201960692694</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1746040545120356</v>
+        <v>0.1746785716056527</v>
       </c>
     </row>
     <row r="30">
@@ -5197,19 +5197,19 @@
         <v>8375</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3734</v>
+        <v>3536</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15671</v>
+        <v>14624</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2132895050533133</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09511171489818569</v>
+        <v>0.0900649548396117</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3991115458871817</v>
+        <v>0.372441785773566</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -5218,19 +5218,19 @@
         <v>8375</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3734</v>
+        <v>3536</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15671</v>
+        <v>14624</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2132895050533133</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09511171489818569</v>
+        <v>0.0900649548396117</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3991115458871817</v>
+        <v>0.372441785773566</v>
       </c>
     </row>
     <row r="31">
@@ -5256,19 +5256,19 @@
         <v>23198</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16451</v>
+        <v>16347</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29614</v>
+        <v>29309</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5908287200955932</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4189735480743353</v>
+        <v>0.4163342616822058</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7542382139691003</v>
+        <v>0.74644940933688</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -5277,19 +5277,19 @@
         <v>23198</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16451</v>
+        <v>16347</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29614</v>
+        <v>29309</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5908287200955932</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4189735480743353</v>
+        <v>0.4163342616822058</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7542382139691003</v>
+        <v>0.74644940933688</v>
       </c>
     </row>
     <row r="32">
@@ -5315,19 +5315,19 @@
         <v>5450</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2097</v>
+        <v>2076</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11341</v>
+        <v>11032</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1387997552441667</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05340011956615696</v>
+        <v>0.05286748059702404</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2888481435577048</v>
+        <v>0.2809606409429198</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -5336,19 +5336,19 @@
         <v>5450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2097</v>
+        <v>2076</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11341</v>
+        <v>11032</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1387997552441667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05340011956615696</v>
+        <v>0.05286748059702404</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2888481435577048</v>
+        <v>0.2809606409429198</v>
       </c>
     </row>
     <row r="33">
@@ -5428,19 +5428,19 @@
         <v>11809</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6062</v>
+        <v>6305</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19985</v>
+        <v>20414</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07339907133207714</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03767963299035626</v>
+        <v>0.0391859889654327</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1242133762298719</v>
+        <v>0.1268781567038063</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -5449,19 +5449,19 @@
         <v>5707</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2248</v>
+        <v>2219</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13502</v>
+        <v>12071</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05003397350079941</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01970501921351061</v>
+        <v>0.01945660648984819</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1183778027192181</v>
+        <v>0.1058296304692846</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -5470,19 +5470,19 @@
         <v>17516</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10135</v>
+        <v>10073</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26849</v>
+        <v>26798</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06370636471987873</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03686234036405172</v>
+        <v>0.03663455654240172</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09764885773959141</v>
+        <v>0.09746328772920393</v>
       </c>
     </row>
     <row r="35">
@@ -5499,19 +5499,19 @@
         <v>30111</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>21353</v>
+        <v>21274</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40822</v>
+        <v>40424</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1871517308457072</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1327179792907449</v>
+        <v>0.1322254968880432</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2537241426913297</v>
+        <v>0.2512488557161139</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -5520,19 +5520,19 @@
         <v>33808</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>23664</v>
+        <v>24142</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>45793</v>
+        <v>45343</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2964045028306633</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2074666591403114</v>
+        <v>0.2116627728210879</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4014788113792284</v>
+        <v>0.3975345008010429</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>60</v>
@@ -5541,19 +5541,19 @@
         <v>63919</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>51158</v>
+        <v>50544</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79298</v>
+        <v>78927</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2324738207879978</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1860600394439874</v>
+        <v>0.1838289871403108</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2884060889072461</v>
+        <v>0.2870552685345389</v>
       </c>
     </row>
     <row r="36">
@@ -5570,19 +5570,19 @@
         <v>88097</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>75606</v>
+        <v>75717</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>100345</v>
+        <v>101807</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5475523999818972</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4699195300639163</v>
+        <v>0.4706083639099998</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6236802891500974</v>
+        <v>0.6327684070747694</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>51</v>
@@ -5591,19 +5591,19 @@
         <v>58822</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>47166</v>
+        <v>46841</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>69965</v>
+        <v>70123</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5157107182516395</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4135156501214826</v>
+        <v>0.4106673117349638</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6134022887777871</v>
+        <v>0.6147915187700396</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>135</v>
@@ -5612,19 +5612,19 @@
         <v>146919</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>129008</v>
+        <v>129186</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>163491</v>
+        <v>164840</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5343432929077879</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4692009987111579</v>
+        <v>0.4698474968042423</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5946157624135857</v>
+        <v>0.5995210658098874</v>
       </c>
     </row>
     <row r="37">
@@ -5641,19 +5641,19 @@
         <v>30875</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>21249</v>
+        <v>21994</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42552</v>
+        <v>41661</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1918967978403185</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1320683274909481</v>
+        <v>0.1366999907113396</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2644772197643126</v>
+        <v>0.25893474820297</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -5662,19 +5662,19 @@
         <v>15723</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8506</v>
+        <v>8632</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25203</v>
+        <v>25792</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1378508054168978</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07457056292732038</v>
+        <v>0.07567727350069926</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2209624962729603</v>
+        <v>0.2261229286847347</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>42</v>
@@ -5683,19 +5683,19 @@
         <v>46598</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>33980</v>
+        <v>34378</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>60877</v>
+        <v>61313</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1694765215843355</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1235834670265133</v>
+        <v>0.1250324245488945</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2214094355650259</v>
+        <v>0.2229958321060076</v>
       </c>
     </row>
     <row r="38">
@@ -6029,19 +6029,19 @@
         <v>7812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4024</v>
+        <v>3807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13884</v>
+        <v>13680</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05949496902723147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0306441358411812</v>
+        <v>0.02899364537601069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1057356434176624</v>
+        <v>0.1041819883868251</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -6050,19 +6050,19 @@
         <v>6513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3334</v>
+        <v>3251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10948</v>
+        <v>10904</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0817442112601996</v>
+        <v>0.08174421126019958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04183941318418016</v>
+        <v>0.04079761538545076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1374029686224388</v>
+        <v>0.1368416111178788</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -6071,19 +6071,19 @@
         <v>14325</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8935</v>
+        <v>8755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21718</v>
+        <v>21481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06789747573971149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04234651256937726</v>
+        <v>0.04149709795352217</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1029364040752361</v>
+        <v>0.1018123797102617</v>
       </c>
     </row>
     <row r="5">
@@ -6100,19 +6100,19 @@
         <v>35268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26429</v>
+        <v>26287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44982</v>
+        <v>45552</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2685935863578368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2012788985191525</v>
+        <v>0.2001978556959075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3425674901079809</v>
+        <v>0.3469121030478637</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -6121,19 +6121,19 @@
         <v>25966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19670</v>
+        <v>19928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32423</v>
+        <v>32308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3258846079870319</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2468666764783552</v>
+        <v>0.2501009339040661</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4069137219626245</v>
+        <v>0.4054694236694116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -6142,19 +6142,19 @@
         <v>61235</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51017</v>
+        <v>49753</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73465</v>
+        <v>72359</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2902297476600337</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2417997154993333</v>
+        <v>0.2358123747770677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3481950526719811</v>
+        <v>0.3429552600714283</v>
       </c>
     </row>
     <row r="6">
@@ -6171,19 +6171,19 @@
         <v>56102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46114</v>
+        <v>46673</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67386</v>
+        <v>66594</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4272555432464442</v>
+        <v>0.4272555432464443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3511890337870309</v>
+        <v>0.3554491286313827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5131920833549657</v>
+        <v>0.5071634983032715</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -6192,19 +6192,19 @@
         <v>29639</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23558</v>
+        <v>23099</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36970</v>
+        <v>36545</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3719697572474756</v>
+        <v>0.3719697572474754</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2956599395888345</v>
+        <v>0.2898994384197273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4639747730549624</v>
+        <v>0.4586472431106702</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -6213,19 +6213,19 @@
         <v>85740</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73057</v>
+        <v>74595</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97458</v>
+        <v>99626</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4063766664246201</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3462634407789928</v>
+        <v>0.3535543970716747</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.461913142421662</v>
+        <v>0.4721881339743039</v>
       </c>
     </row>
     <row r="7">
@@ -6242,19 +6242,19 @@
         <v>32125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23702</v>
+        <v>23611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43143</v>
+        <v>41728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2446559013684874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1805117272974393</v>
+        <v>0.1798178061950881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3285624167810963</v>
+        <v>0.3177885546441563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -6263,19 +6263,19 @@
         <v>17562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12419</v>
+        <v>12644</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23973</v>
+        <v>24035</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2204014235052931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1558552490404845</v>
+        <v>0.1586826003859574</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3008603236102164</v>
+        <v>0.3016444130883395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -6284,19 +6284,19 @@
         <v>49687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40253</v>
+        <v>39778</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61528</v>
+        <v>60467</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2354961101756347</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1907831357469336</v>
+        <v>0.1885317734936166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2916181555684869</v>
+        <v>0.2865915979558775</v>
       </c>
     </row>
     <row r="8">
@@ -6388,19 +6388,19 @@
         <v>7085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3315</v>
+        <v>3433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12585</v>
+        <v>13019</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08832675913727481</v>
+        <v>0.08832675913727479</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04132704678471916</v>
+        <v>0.04280101634993592</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1568827080880514</v>
+        <v>0.1622989463658663</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -6409,19 +6409,19 @@
         <v>4237</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1718</v>
+        <v>1777</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7873</v>
+        <v>8506</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08344671175982316</v>
+        <v>0.08344671175982314</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03382493602815714</v>
+        <v>0.03500176854968245</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1550459340512753</v>
+        <v>0.167520101753357</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -6430,19 +6430,19 @@
         <v>11323</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6793</v>
+        <v>6276</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17477</v>
+        <v>17332</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08643511575001238</v>
+        <v>0.08643511575001235</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05185601453323301</v>
+        <v>0.04791340834892035</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1334171723931929</v>
+        <v>0.1323080874572943</v>
       </c>
     </row>
     <row r="10">
@@ -6459,19 +6459,19 @@
         <v>20634</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14480</v>
+        <v>14142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29100</v>
+        <v>29418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2572281037261077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1805109049911349</v>
+        <v>0.1762933576999871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3627598124970209</v>
+        <v>0.3667286438901912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -6480,19 +6480,19 @@
         <v>16660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11569</v>
+        <v>11562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21852</v>
+        <v>21869</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3280853794156126</v>
+        <v>0.3280853794156127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2278369818501051</v>
+        <v>0.227706286227726</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4303405493739738</v>
+        <v>0.4306707601280094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -6501,19 +6501,19 @@
         <v>37294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29381</v>
+        <v>28592</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47019</v>
+        <v>46064</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2846943733399647</v>
+        <v>0.2846943733399646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2242916212720757</v>
+        <v>0.2182696365768826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.358932629803709</v>
+        <v>0.3516481046170095</v>
       </c>
     </row>
     <row r="11">
@@ -6530,19 +6530,19 @@
         <v>31530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23918</v>
+        <v>23397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39766</v>
+        <v>39800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3930575087321399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2981640472062526</v>
+        <v>0.2916696756041848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4957252262311874</v>
+        <v>0.4961484003898289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -6551,19 +6551,19 @@
         <v>23181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17782</v>
+        <v>18232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28963</v>
+        <v>29363</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4565168592596128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3501954067042389</v>
+        <v>0.3590625206528679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5703863020754326</v>
+        <v>0.5782551159545932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -6572,19 +6572,19 @@
         <v>54711</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45518</v>
+        <v>45955</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64609</v>
+        <v>65020</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.417656134831534</v>
+        <v>0.4176561348315339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3474758479634106</v>
+        <v>0.3508112986500173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4932129292307479</v>
+        <v>0.4963511981104461</v>
       </c>
     </row>
     <row r="12">
@@ -6601,19 +6601,19 @@
         <v>20968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14977</v>
+        <v>14531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28263</v>
+        <v>29188</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2613876284044776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1867006771373127</v>
+        <v>0.181145716139214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3523317975113262</v>
+        <v>0.3638522529873618</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -6622,19 +6622,19 @@
         <v>6700</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3538</v>
+        <v>3602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11503</v>
+        <v>11428</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1319510495649514</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06967402136881129</v>
+        <v>0.07093065530740629</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2265338427144655</v>
+        <v>0.2250530685759273</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -6643,19 +6643,19 @@
         <v>27668</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20756</v>
+        <v>19972</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37394</v>
+        <v>37203</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.211214376078489</v>
+        <v>0.2112143760784889</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1584457672254244</v>
+        <v>0.1524612042663071</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.285455431546731</v>
+        <v>0.2839990850240518</v>
       </c>
     </row>
     <row r="13">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2924</v>
+        <v>3186</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006346331740979622</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03293795760065605</v>
+        <v>0.0358852048198406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3848</v>
+        <v>2803</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004563008927274305</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03115758814525858</v>
+        <v>0.02270209247688657</v>
       </c>
     </row>
     <row r="15">
@@ -6810,19 +6810,19 @@
         <v>24970</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17728</v>
+        <v>17899</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33106</v>
+        <v>32799</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2812376242602325</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1996709828938313</v>
+        <v>0.2015897757591774</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3728674040195015</v>
+        <v>0.3694089047221919</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -6831,19 +6831,19 @@
         <v>5819</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3145</v>
+        <v>2927</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9840</v>
+        <v>9644</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1676817462489063</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09063431131009603</v>
+        <v>0.08436289105307476</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2835775578767642</v>
+        <v>0.2779197480656797</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>40</v>
@@ -6852,19 +6852,19 @@
         <v>30789</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22381</v>
+        <v>23312</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>39827</v>
+        <v>39665</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2493283582222934</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.181238965103534</v>
+        <v>0.1887810019432384</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3225234362849146</v>
+        <v>0.3212109300727</v>
       </c>
     </row>
     <row r="16">
@@ -6881,19 +6881,19 @@
         <v>41923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33910</v>
+        <v>33745</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50159</v>
+        <v>50071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4721780526497812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3819254708676778</v>
+        <v>0.3800710987489719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5649315255070693</v>
+        <v>0.5639440191221496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -6902,19 +6902,19 @@
         <v>23682</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19138</v>
+        <v>19075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27426</v>
+        <v>27695</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6824861779057048</v>
+        <v>0.6824861779057049</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5515190240532238</v>
+        <v>0.54972506077812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7903657464707416</v>
+        <v>0.7981359275369057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -6923,19 +6923,19 @@
         <v>65606</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56160</v>
+        <v>56281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75222</v>
+        <v>74311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5312747549628235</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4547843441314234</v>
+        <v>0.4557653370815514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6091483011710935</v>
+        <v>0.6017754707144376</v>
       </c>
     </row>
     <row r="17">
@@ -6952,19 +6952,19 @@
         <v>21330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15276</v>
+        <v>14351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29371</v>
+        <v>28991</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2402379913490066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1720559400851346</v>
+        <v>0.1616313153918948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3308014119203549</v>
+        <v>0.3265279897546999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -6973,19 +6973,19 @@
         <v>5199</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2781</v>
+        <v>2724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9557</v>
+        <v>8983</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1498320758453891</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08014878423327619</v>
+        <v>0.07849452815629987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2754140164236986</v>
+        <v>0.258888331286786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -6994,19 +6994,19 @@
         <v>26529</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19457</v>
+        <v>19373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35126</v>
+        <v>37030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2148338778876089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1575621928268173</v>
+        <v>0.1568823875540687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2844548929253564</v>
+        <v>0.2998709284770999</v>
       </c>
     </row>
     <row r="18">
@@ -7098,19 +7098,19 @@
         <v>2383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7910</v>
+        <v>7338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01429914519028872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002727742044755312</v>
+        <v>0.002719107365538405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04746301370374129</v>
+        <v>0.04403645214855603</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7119,19 +7119,19 @@
         <v>2480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6116</v>
+        <v>6184</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02767117787745923</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007271278562218649</v>
+        <v>0.006435506251989112</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06822507170622313</v>
+        <v>0.06899042045873857</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -7140,19 +7140,19 @@
         <v>4863</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2126</v>
+        <v>2001</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10663</v>
+        <v>9884</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01897624234268076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008294059390650928</v>
+        <v>0.007805923746246525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04160547235227393</v>
+        <v>0.03856741191534076</v>
       </c>
     </row>
     <row r="20">
@@ -7169,19 +7169,19 @@
         <v>39884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30622</v>
+        <v>30719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50988</v>
+        <v>51104</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2393333949037679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1837543064111089</v>
+        <v>0.1843361393061615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3059663003352276</v>
+        <v>0.3066601309905151</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -7190,19 +7190,19 @@
         <v>28351</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22601</v>
+        <v>21877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35320</v>
+        <v>34596</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3162711263017883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2521328364237792</v>
+        <v>0.2440473151495668</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3940153428853948</v>
+        <v>0.3859379961589125</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -7211,19 +7211,19 @@
         <v>68235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56684</v>
+        <v>55947</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81613</v>
+        <v>80741</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2662436824308416</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2211743898869142</v>
+        <v>0.2182987894351641</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3184425955057541</v>
+        <v>0.3150429193385865</v>
       </c>
     </row>
     <row r="21">
@@ -7240,19 +7240,19 @@
         <v>94200</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82657</v>
+        <v>82851</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105841</v>
+        <v>105824</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5652697891431249</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4960050666833616</v>
+        <v>0.4971652291638315</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.635122379012551</v>
+        <v>0.6350205804587634</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>72</v>
@@ -7261,19 +7261,19 @@
         <v>40278</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33305</v>
+        <v>32801</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47752</v>
+        <v>47387</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4493219946145344</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3715338807924506</v>
+        <v>0.3659122491278405</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5327044464304208</v>
+        <v>0.5286318654925249</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>192</v>
@@ -7282,19 +7282,19 @@
         <v>134478</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>121381</v>
+        <v>120071</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147274</v>
+        <v>149043</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5247150647939911</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.473612146353358</v>
+        <v>0.4685023622375527</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5746432510172712</v>
+        <v>0.5815455621065985</v>
       </c>
     </row>
     <row r="22">
@@ -7311,19 +7311,19 @@
         <v>30179</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21445</v>
+        <v>21965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39785</v>
+        <v>39850</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1810976707628185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1286862509653149</v>
+        <v>0.1318038101801951</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2387421655832424</v>
+        <v>0.2391298577533768</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -7332,19 +7332,19 @@
         <v>18532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13483</v>
+        <v>12947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24770</v>
+        <v>24782</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2067357012062181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1504081307470261</v>
+        <v>0.1444320452752498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2763292701955009</v>
+        <v>0.2764634835047647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -7353,19 +7353,19 @@
         <v>48711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38595</v>
+        <v>39247</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59926</v>
+        <v>61755</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1900650104324867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1505912420689105</v>
+        <v>0.1531368759839881</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2338232229080506</v>
+        <v>0.2409614128987649</v>
       </c>
     </row>
     <row r="23">
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6491</v>
+        <v>5942</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02464399037701093</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08961826312265064</v>
+        <v>0.08203625933461478</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7478,19 +7478,19 @@
         <v>1549</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4139</v>
+        <v>4217</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01332088754384988</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00343194606784072</v>
+        <v>0.003410253189403433</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03558237125767565</v>
+        <v>0.03625834154343768</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -7499,19 +7499,19 @@
         <v>3334</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1173</v>
+        <v>1145</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7651</v>
+        <v>7400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01766616845463814</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006213426469241312</v>
+        <v>0.006066995600869742</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04053447718038873</v>
+        <v>0.0392043744755198</v>
       </c>
     </row>
     <row r="25">
@@ -7528,19 +7528,19 @@
         <v>10224</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5155</v>
+        <v>5488</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16552</v>
+        <v>17821</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1411578029921675</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07116383174290733</v>
+        <v>0.07576836542077763</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2285122682055404</v>
+        <v>0.2460307672875413</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -7549,19 +7549,19 @@
         <v>31179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24178</v>
+        <v>24799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39471</v>
+        <v>39672</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.268057181067231</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2078644769526395</v>
+        <v>0.2132035402358912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3393459468536503</v>
+        <v>0.341066847195977</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -7570,19 +7570,19 @@
         <v>41404</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33263</v>
+        <v>33239</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51302</v>
+        <v>50657</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2193590942207885</v>
+        <v>0.2193590942207886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1762307050561883</v>
+        <v>0.1761012256058208</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.271798076488214</v>
+        <v>0.2683813577267097</v>
       </c>
     </row>
     <row r="26">
@@ -7599,19 +7599,19 @@
         <v>45428</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37779</v>
+        <v>37798</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53167</v>
+        <v>53105</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6271725789107916</v>
+        <v>0.6271725789107919</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5215696125425491</v>
+        <v>0.5218283046262128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7340215712961613</v>
+        <v>0.7331562139842495</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>111</v>
@@ -7620,19 +7620,19 @@
         <v>63210</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54828</v>
+        <v>55060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70874</v>
+        <v>70560</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5434305897407536</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4713719858566693</v>
+        <v>0.473367251530377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6093253979316096</v>
+        <v>0.6066247535107696</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>169</v>
@@ -7641,19 +7641,19 @@
         <v>108638</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>96649</v>
+        <v>98420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>119410</v>
+        <v>119175</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5755668753802632</v>
+        <v>0.5755668753802633</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5120481736413799</v>
+        <v>0.5214348833380115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6326373403169655</v>
+        <v>0.6313944834569725</v>
       </c>
     </row>
     <row r="27">
@@ -7670,19 +7670,19 @@
         <v>14995</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9449</v>
+        <v>9549</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22129</v>
+        <v>22540</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2070256277200298</v>
+        <v>0.2070256277200299</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1304514656506985</v>
+        <v>0.1318389106779153</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3055101780913863</v>
+        <v>0.3111860543464213</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>37</v>
@@ -7691,19 +7691,19 @@
         <v>20378</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>14591</v>
+        <v>14993</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26883</v>
+        <v>26735</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1751913416481655</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1254424985866955</v>
+        <v>0.1288947568406975</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2311213588134474</v>
+        <v>0.2298516617144975</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>55</v>
@@ -7712,19 +7712,19 @@
         <v>35373</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27173</v>
+        <v>27272</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>43976</v>
+        <v>45336</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1874078619443101</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1439642962319906</v>
+        <v>0.1444896337306026</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.232984694781227</v>
+        <v>0.2401937021355875</v>
       </c>
     </row>
     <row r="28">
@@ -7829,19 +7829,19 @@
         <v>2194</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>439</v>
+        <v>659</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5820</v>
+        <v>6088</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01696496325386276</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003392722284863623</v>
+        <v>0.00509487648680572</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04500740366701887</v>
+        <v>0.04708018102148551</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -7853,16 +7853,16 @@
         <v>655</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5771</v>
+        <v>5810</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01647451566293975</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004920058129975046</v>
+        <v>0.0049202865652765</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04333645513214317</v>
+        <v>0.04363227490570578</v>
       </c>
     </row>
     <row r="30">
@@ -7879,19 +7879,19 @@
         <v>1959</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3313</v>
+        <v>3384</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5087130204914408</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1328336220454716</v>
+        <v>0.1311635753102337</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8605416556523722</v>
+        <v>0.8790460290929675</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>43</v>
@@ -7900,19 +7900,19 @@
         <v>23234</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16986</v>
+        <v>17290</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30442</v>
+        <v>30041</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1796747503352469</v>
+        <v>0.179674750335247</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1313633343405853</v>
+        <v>0.1337112448002454</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2354205863956343</v>
+        <v>0.2323171714211064</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>46</v>
@@ -7921,19 +7921,19 @@
         <v>25192</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18972</v>
+        <v>18946</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32963</v>
+        <v>32721</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1891870625344988</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1424747763316205</v>
+        <v>0.1422790691170974</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.24755170631839</v>
+        <v>0.2457335123907272</v>
       </c>
     </row>
     <row r="31">
@@ -7950,19 +7950,19 @@
         <v>1891</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3339</v>
+        <v>3357</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.4912869795085591</v>
+        <v>0.4912869795085592</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1346697642380508</v>
+        <v>0.1233073806632901</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8671663779545283</v>
+        <v>0.8720198130754016</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>134</v>
@@ -7971,19 +7971,19 @@
         <v>80762</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>71523</v>
+        <v>71502</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>88522</v>
+        <v>89127</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.6245624636810063</v>
+        <v>0.6245624636810064</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5531181938320369</v>
+        <v>0.5529575143562628</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6845778561071346</v>
+        <v>0.6892526947448946</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>137</v>
@@ -7992,19 +7992,19 @@
         <v>82652</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73691</v>
+        <v>73718</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>91310</v>
+        <v>91055</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.6207095440393093</v>
+        <v>0.6207095440393096</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5534090109714658</v>
+        <v>0.55361033166826</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6857231308176732</v>
+        <v>0.6838152535868633</v>
       </c>
     </row>
     <row r="32">
@@ -8034,19 +8034,19 @@
         <v>23120</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16825</v>
+        <v>16839</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30325</v>
+        <v>30869</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.178797822729884</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1301112163833241</v>
+        <v>0.130226019682173</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2345181852933741</v>
+        <v>0.23872564326812</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -8055,19 +8055,19 @@
         <v>23120</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>16800</v>
+        <v>17091</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30374</v>
+        <v>30516</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.173628877763252</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1261670639038563</v>
+        <v>0.1283521332422976</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2281053370139231</v>
+        <v>0.2291713406589194</v>
       </c>
     </row>
     <row r="33">
@@ -8159,19 +8159,19 @@
         <v>19629</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13015</v>
+        <v>12449</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29200</v>
+        <v>29439</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03613301156327479</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02395750531936045</v>
+        <v>0.0229159564233531</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05375124340222454</v>
+        <v>0.05419216365014284</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -8180,19 +8180,19 @@
         <v>16974</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11393</v>
+        <v>11668</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24507</v>
+        <v>23571</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.03391975319968274</v>
+        <v>0.03391975319968273</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02276647042626739</v>
+        <v>0.02331609684622724</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04897158751677292</v>
+        <v>0.04710240934478849</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>52</v>
@@ -8201,19 +8201,19 @@
         <v>36603</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28289</v>
+        <v>27165</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>48701</v>
+        <v>47390</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03507178358510153</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02710504937823992</v>
+        <v>0.0260283969914518</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04666330855427576</v>
+        <v>0.04540753360466516</v>
       </c>
     </row>
     <row r="35">
@@ -8230,19 +8230,19 @@
         <v>132940</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>115818</v>
+        <v>113159</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>152149</v>
+        <v>152692</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2447157546658331</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.21319898427576</v>
+        <v>0.208302927777691</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2800758580303653</v>
+        <v>0.2810757867035881</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>232</v>
@@ -8251,19 +8251,19 @@
         <v>131208</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>117548</v>
+        <v>117486</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>145423</v>
+        <v>147224</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.262194289873236</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2348970563991212</v>
+        <v>0.2347738949216249</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2906008421312945</v>
+        <v>0.2942000563299214</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>393</v>
@@ -8272,19 +8272,19 @@
         <v>264148</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>242782</v>
+        <v>239555</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>288495</v>
+        <v>288202</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2530964800636028</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2326249097210011</v>
+        <v>0.2295323414086596</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.276424763211459</v>
+        <v>0.2761448137791359</v>
       </c>
     </row>
     <row r="36">
@@ -8301,19 +8301,19 @@
         <v>271075</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>250350</v>
+        <v>249015</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>291981</v>
+        <v>290811</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4989951046519791</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4608449127959269</v>
+        <v>0.4583868611583307</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5374802826161341</v>
+        <v>0.5353251875296954</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>439</v>
@@ -8322,19 +8322,19 @@
         <v>260750</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>242905</v>
+        <v>243739</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>278010</v>
+        <v>277213</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.5210595923521274</v>
+        <v>0.5210595923521273</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4853994217136048</v>
+        <v>0.4870662112072445</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5555492024067124</v>
+        <v>0.553957251888188</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>785</v>
@@ -8343,19 +8343,19 @@
         <v>531825</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>503851</v>
+        <v>506797</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>561215</v>
+        <v>559378</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.5095747333372873</v>
+        <v>0.5095747333372874</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4827715485882136</v>
+        <v>0.4855937457540718</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5377357155461484</v>
+        <v>0.5359747772713844</v>
       </c>
     </row>
     <row r="37">
@@ -8372,19 +8372,19 @@
         <v>119598</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>103280</v>
+        <v>102184</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>137903</v>
+        <v>137043</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.220156129118913</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1901177678811867</v>
+        <v>0.1881004914515022</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2538528136949116</v>
+        <v>0.252269784914353</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>154</v>
@@ -8393,19 +8393,19 @@
         <v>91491</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>78444</v>
+        <v>79408</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>104794</v>
+        <v>106099</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1828263645749539</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1567563265150399</v>
+        <v>0.1586823208818504</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2094116744929494</v>
+        <v>0.2120192214951494</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>301</v>
@@ -8414,19 +8414,19 @@
         <v>211088</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>190606</v>
+        <v>188296</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>232775</v>
+        <v>234917</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2022570030140083</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1826319134386169</v>
+        <v>0.18041800922189</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.223036260733761</v>
+        <v>0.2250884582054271</v>
       </c>
     </row>
     <row r="38">
